--- a/resources/ExcelsheetData/VendorsModuleTest.xlsx
+++ b/resources/ExcelsheetData/VendorsModuleTest.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27106"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/QA/UnilogProjects/cimm2touch/resources/ExcelsheetData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="createVendors" sheetId="1" r:id="rId1"/>
@@ -15,13 +20,22 @@
     <sheet name="TC_Vendors_019" sheetId="6" r:id="rId6"/>
     <sheet name="TC_Vendors_026" sheetId="7" r:id="rId7"/>
     <sheet name="TC_Vendors_027" sheetId="8" r:id="rId8"/>
+    <sheet name="genericFieldsSettingForVendor" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="68">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -192,6 +206,39 @@
   </si>
   <si>
     <t>Vendors Name Error Message</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>welcome message</t>
+  </si>
+  <si>
+    <t>Generic Column Setting</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>TC_genericFieldsSetting</t>
+  </si>
+  <si>
+    <t>automationUser</t>
+  </si>
+  <si>
+    <t>unilog123##</t>
+  </si>
+  <si>
+    <t>Welcome, Automation !</t>
+  </si>
+  <si>
+    <t>Show fields</t>
+  </si>
+  <si>
+    <t>Vendor Name,Short Name</t>
   </si>
 </sst>
 </file>
@@ -214,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +271,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,16 +291,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -255,11 +308,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -323,9 +379,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -358,9 +414,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -570,25 +626,25 @@
       <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -676,7 +732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -720,7 +776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -764,7 +820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -808,7 +864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -852,7 +908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -896,7 +952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -940,7 +996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -984,7 +1040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1028,7 +1084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1085,25 +1141,25 @@
       <selection activeCell="B2" sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1204,16 +1260,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1260,25 +1316,25 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="40" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +1378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1379,13 +1435,13 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1414,17 +1470,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1444,7 +1500,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1477,13 +1533,13 @@
       <selection activeCell="B2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1491,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1508,17 +1564,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1526,12 +1582,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
